--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2162622.742561268</v>
+        <v>2160329.147104673</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>72.94942429078201</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>237.5982368206873</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>191.1924583607147</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>83.96419053910869</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>282.6988068886399</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>82.99473116157577</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>66.23125412673322</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,7 +1111,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>186.8699196171809</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177672</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>201.66221878632</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>42.67804628306436</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>101.505273336468</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503989</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890354</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,10 +2533,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740333</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>146.4649598217087</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248.370234799863</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
         <v>837.3843300102556</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2322.34110938936</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1991.278222045789</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1638.509566775675</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1638.509566775675</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1248.370234799863</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429752</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>801.944955774447</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330612</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1738.785038214515</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="C4" t="n">
-        <v>1738.785038214515</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="D4" t="n">
-        <v>1588.668398802179</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E4" t="n">
-        <v>1440.755305219786</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>1293.865357721876</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>1125.878893030154</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936603</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936603</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878779</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.98193257148</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324692</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400155</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>2562.339328400155</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>2369.215633086302</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="X4" t="n">
-        <v>2141.226082188285</v>
+        <v>485.6403455667598</v>
       </c>
       <c r="Y4" t="n">
-        <v>1920.433503044754</v>
+        <v>485.6403455667598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066531</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>2630.721789066531</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>2630.721789066531</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>626.3436713194226</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C7" t="n">
-        <v>626.3436713194226</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1224.739181610489</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1224.739181610489</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>996.7496307124713</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y7" t="n">
-        <v>807.9921361496623</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.6936570343842</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7574741064773</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>777.6936570343842</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>777.6936570343842</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>777.6936570343842</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400734</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138432</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703131</v>
       </c>
     </row>
     <row r="14">
@@ -5255,28 +5255,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5288,28 +5288,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5990,7 +5990,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6309,19 +6309,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>216.8470138298237</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7099,46 +7099,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7557007032921</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>599.6019060180513</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>599.6019060180513</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7603,16 +7603,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241554</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>114.3555089013344</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844822889</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922705</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>121.5862749664513</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>18.49466557218874</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823551</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2.150513196503681</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>31.77834493961092</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>836474.4241574412</v>
+        <v>836474.4241574411</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>836474.4241574411</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>836474.4241574411</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>836474.4241574412</v>
+        <v>836474.4241574411</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>836474.4241574412</v>
+        <v>836474.4241574411</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>836474.4241574411</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516057</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="J2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="J2" t="n">
-        <v>585181.2847752548</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="L2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752545</v>
-      </c>
       <c r="N2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752541</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312024</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768912</v>
+        <v>9947.14432176885</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768879</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768908</v>
+        <v>9947.14432176889</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768916</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
+        <v>9947.144321768921</v>
+      </c>
+      <c r="L4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="L4" t="n">
-        <v>9947.144321768892</v>
-      </c>
       <c r="M4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768901</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750364.683271381</v>
+        <v>-750364.6832713811</v>
       </c>
       <c r="C6" t="n">
-        <v>194748.4218849863</v>
+        <v>194748.4218849861</v>
       </c>
       <c r="D6" t="n">
-        <v>398187.1634970923</v>
+        <v>398187.1634970919</v>
       </c>
       <c r="E6" t="n">
-        <v>148699.1488222234</v>
+        <v>148664.4108967871</v>
       </c>
       <c r="F6" t="n">
-        <v>474111.6106295786</v>
+        <v>474076.8727041427</v>
       </c>
       <c r="G6" t="n">
-        <v>474111.6106295784</v>
+        <v>474076.8727041427</v>
       </c>
       <c r="H6" t="n">
-        <v>474111.6106295784</v>
+        <v>474076.8727041426</v>
       </c>
       <c r="I6" t="n">
-        <v>474111.6106295783</v>
+        <v>474076.8727041429</v>
       </c>
       <c r="J6" t="n">
-        <v>306506.4328195962</v>
+        <v>306471.6948941601</v>
       </c>
       <c r="K6" t="n">
-        <v>425001.5179235238</v>
+        <v>424966.7799980884</v>
       </c>
       <c r="L6" t="n">
-        <v>474111.6106295784</v>
+        <v>474076.8727041426</v>
       </c>
       <c r="M6" t="n">
-        <v>389056.5826940667</v>
+        <v>389021.8447686307</v>
       </c>
       <c r="N6" t="n">
-        <v>474111.6106295784</v>
+        <v>474076.8727041429</v>
       </c>
       <c r="O6" t="n">
-        <v>474111.6106295785</v>
+        <v>474076.8727041426</v>
       </c>
       <c r="P6" t="n">
-        <v>474111.6106295784</v>
+        <v>474076.8727041424</v>
       </c>
     </row>
   </sheetData>
@@ -26793,16 +26793,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>292.3234674802255</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>13.44701330777468</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>95.33053997587635</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>141.7454648499285</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.0350347748407</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>26.19303062660006</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>101.0155669718946</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>31.71473373491386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029158</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>168.0688818921491</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>147.0909790483775</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>185.017725000123</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.1804684129204</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>164.9290651940687</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32798,13 +32798,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33029,13 +33029,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,7 +34469,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>397.6203974676403</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>412.0358695391846</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34793,13 +34793,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.3390294385614</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>22.33282074962425</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,13 +36446,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36677,13 +36677,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191298</v>
       </c>
       <c r="M37" t="n">
         <v>426.2724270010451</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
